--- a/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,45 +541,57 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,09</t>
+          <t>31,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,94</t>
+          <t>33,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,28</t>
+          <t>15,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>248,82%</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>244,62%</t>
+          <t>238,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>207,28%</t>
+          <t>208,29%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,61; 40,88</t>
+          <t>27,32; 36,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 36,25</t>
+          <t>28,8; 37,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,55; 38,02</t>
+          <t>9,95; 20,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>185,88; 326,71</t>
+          <t>9,5; 22,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>169,84; 336,33</t>
+          <t>173,46; 332,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>161,17; 280,72</t>
+          <t>159,98; 278,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 40,02</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 43,85</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,86</t>
+          <t>38,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,91</t>
+          <t>40,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,43</t>
+          <t>20,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>223,15%</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>305,49%</t>
+          <t>310,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>458,02%</t>
+          <t>456,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34,95%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 36,23</t>
+          <t>32,14; 43,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 43,24</t>
+          <t>31,91; 47,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,54; 48,6</t>
+          <t>10,21; 29,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>145,79; 325,48</t>
+          <t>10,74; 25,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>212,72; 441,11</t>
+          <t>208,34; 442,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>265,86; 743,68</t>
+          <t>285,22; 794,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 66,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 54,2</t>
         </is>
       </c>
     </row>
@@ -764,12 +820,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,29</t>
+          <t>37,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,17 +835,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>268,52%</t>
+          <t>24,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>267,29%</t>
+          <t>273,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -802,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 48,68</t>
+          <t>27,66; 48,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,32; 47,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,17 +883,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>129,29; 491,82</t>
+          <t>8,76; 41,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>139,52; 470,83</t>
+          <t>145,93; 525,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 113,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,42</t>
+          <t>34,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,86</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>16,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>241,57%</t>
+          <t>18,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>269,82%</t>
+          <t>268,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>244,58%</t>
+          <t>245,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34,48%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,1; 37,89</t>
+          <t>31,83; 38,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,21</t>
+          <t>31,06; 38,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,0</t>
+          <t>11,63; 21,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>189,39; 301,33</t>
+          <t>13,12; 22,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>214,79; 336,76</t>
+          <t>214,2; 332,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>183,65; 305,89</t>
+          <t>188,54; 303,46</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 41,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 45,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>31,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>33,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>238,3%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>208,29%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>28,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>29,8%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>31.64499635243777</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>33.28129787211077</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>15.50776459978014</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16.01276645500198</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.329385227283636</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.073293900965909</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2855512648668206</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2837161266586944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>27,32; 36,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>28,8; 37,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 20,39</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>9,5; 22,56</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>173,46; 332,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>159,98; 278,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>17,28; 40,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,85; 43,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>26.6638639522723</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>28.66334132710041</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>9.88254083645394</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9.090986757559055</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1.675295812760344</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>1.55387409136723</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1756004226451411</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1494693983731702</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.09206921373036</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>37.99900804451658</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.3682141235353</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.94798493060377</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.267369494221068</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.757724292386024</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4019663079166204</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4204858685328347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>38,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>40,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>310,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>456,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>40,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>34,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>32,14; 43,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>31,91; 47,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>10,21; 29,62</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,74; 25,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>208,34; 442,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>285,22; 794,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>20,01; 66,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>18,98; 54,2</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>38.07140548560524</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>40.4286177871429</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>19.99998469649973</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>18.95210760342314</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.122459101148787</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>4.581014783371826</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.403548019216869</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.358491350787972</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>37,58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>273,56%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>54,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>32.32796689881391</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>32.72760984566846</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>10.04897850084638</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>11.39247721724477</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.111452438240237</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2.676021757773371</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2004336474976036</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2038154715551607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 48,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,76; 41,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>145,93; 525,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>15,77; 113,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>43.03301098920421</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>48.78614869167328</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>29.29016134113403</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>26.46488505312487</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.475605789570347</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.572232909175664</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6672873266879142</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5539535881125072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>34,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>268,98%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>245,22%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>31,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>34,48%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>37.71030272841644</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="n">
+        <v>25.12954474028398</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.662585978571312</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.5522001094518258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>31,83; 38,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 38,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 21,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,12; 22,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>214,2; 332,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>188,54; 303,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 41,63</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,17; 45,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>27.37577828497218</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>8.821368816953585</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1.424630962773214</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.1598482266430725</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>48.21241693417315</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>41.103291180854</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.175748214308326</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.150137523953292</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>34.81086200679435</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>35.00681424751942</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.59672542552406</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>18.32976838274091</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.656899068720993</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.44637121797161</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3121862645521165</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.341528936732001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>31.59593085160688</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>31.12553012716977</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>11.73987094648237</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>13.20804567492946</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.129986196821867</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.916359286422882</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2056555142887681</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.232653941885708</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>37.89340739573644</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>39.16024819947223</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.02162679088278</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>22.99407998929943</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.291839168261534</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.159755558035651</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4150676462039216</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4536106066529376</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1016,13 +1001,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
